--- a/Hardware/BOM/BOM.xlsx
+++ b/Hardware/BOM/BOM.xlsx
@@ -8,19 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="REF" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="15" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="388">
   <si>
     <t>Part</t>
   </si>
@@ -721,15 +719,6 @@
     <t>R3</t>
   </si>
   <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>R/10K/5%/04</t>
-  </si>
-  <si>
-    <t>RC0402JR-0710KL</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
@@ -1024,21 +1013,9 @@
     <t>R53</t>
   </si>
   <si>
-    <t>R/130/5%/04</t>
-  </si>
-  <si>
-    <t>RC1005J131CS</t>
-  </si>
-  <si>
     <t>R54</t>
   </si>
   <si>
-    <t>R/120/5%/04</t>
-  </si>
-  <si>
-    <t>RC1005J121CS</t>
-  </si>
-  <si>
     <t>R55</t>
   </si>
   <si>
@@ -1169,13 +1146,49 @@
   </si>
   <si>
     <t>Count of Part</t>
+  </si>
+  <si>
+    <t>22p</t>
+  </si>
+  <si>
+    <t>C/22p/16V/A04</t>
+  </si>
+  <si>
+    <t>C62</t>
+  </si>
+  <si>
+    <t>C63</t>
+  </si>
+  <si>
+    <t>C64</t>
+  </si>
+  <si>
+    <t>FID1</t>
+  </si>
+  <si>
+    <t>FIDUCIAL1.5X3</t>
+  </si>
+  <si>
+    <t>FIDUCIAL-1.5X3</t>
+  </si>
+  <si>
+    <t>Fiducial Alignment Points</t>
+  </si>
+  <si>
+    <t>FID3</t>
+  </si>
+  <si>
+    <t>R/12K/5%/04</t>
+  </si>
+  <si>
+    <t>R/150/5%/04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1196,16 +1209,30 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1213,11 +1240,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1227,6 +1263,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1242,13 +1280,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Albert" refreshedDate="41541.514408912037" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="164">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Albert" refreshedDate="41541.536856134262" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="167">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:K1048576" sheet="Sheet1"/>
+    <worksheetSource ref="A1:K1048576" sheet="REF"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="Part" numFmtId="0">
-      <sharedItems containsBlank="1" count="162">
+      <sharedItems containsBlank="1" count="167">
         <s v="BZ1"/>
         <s v="C1"/>
         <s v="C2"/>
@@ -1311,6 +1349,9 @@
         <s v="C59"/>
         <s v="C60"/>
         <s v="C61"/>
+        <s v="C62"/>
+        <s v="C63"/>
+        <s v="C64"/>
         <s v="CARDPRS"/>
         <s v="D0/TX/CLK"/>
         <s v="D1"/>
@@ -1319,6 +1360,8 @@
         <s v="D3"/>
         <s v="D4"/>
         <s v="D5"/>
+        <s v="FID1"/>
+        <s v="FID3"/>
         <s v="GND"/>
         <s v="IC1"/>
         <s v="IC2"/>
@@ -1426,13 +1469,14 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="CUSTOMERPN" numFmtId="0">
-      <sharedItems containsBlank="1" count="56">
+      <sharedItems containsBlank="1" count="58">
         <s v="BUZ-REP"/>
         <s v="C/4.7u/16V/C06"/>
         <s v="C/1m/16V/PTH"/>
         <s v="C/10n/50V/C04"/>
         <s v="C/10u/25V/A08"/>
         <s v="C/0.1u/16V/A04"/>
+        <s v="C/22p/16V/A04"/>
         <s v="C/220n/200V/C12"/>
         <s v="C/4.7n/25V/D04"/>
         <s v="DNP"/>
@@ -1461,7 +1505,7 @@
         <s v="XTAL/8MHZ/PTH"/>
         <s v="XTAL/2712MHZ/5x3"/>
         <s v="R/470/5%/04"/>
-        <s v="R/10K/5%/04"/>
+        <s v="R/12K/5%/04"/>
         <s v="R/1K/5%/04"/>
         <s v="R/4.7k/5%/04"/>
         <s v="R/2.2k/5%/04"/>
@@ -1471,18 +1515,19 @@
         <s v="R/13k/5%/04"/>
         <s v="R/1M/5%/12"/>
         <s v="R/100K/5%/06"/>
-        <s v="R/12k/5%/04"/>
         <s v="R/5.1k/5%/04"/>
         <s v="R/9.1k/5%/04"/>
         <s v="R/27k/1%/04"/>
         <s v="R/100/5%/06"/>
         <s v="R/3.3/5%/06"/>
-        <s v="R/130/5%/04"/>
-        <s v="R/120/5%/04"/>
+        <s v="R/150/5%/04"/>
         <s v="IC/3V3REG"/>
         <s v="IC/5VREG"/>
         <s v="IC/SAMD20/TQ32"/>
         <s v="IC/MFRC52202"/>
+        <s v="R/130/5%/04" u="1"/>
+        <s v="R/120/5%/04" u="1"/>
+        <s v="R/10K/5%/04" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="FSK_PN" numFmtId="0">
@@ -1498,9 +1543,10 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="SPECIAL" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
+      <sharedItems containsBlank="1" count="5">
         <m/>
         <s v="ASK"/>
+        <s v="DNP"/>
         <s v="FSK/PSK"/>
         <s v="MIFARE"/>
       </sharedItems>
@@ -1515,7 +1561,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="164">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="167">
   <r>
     <x v="0"/>
     <s v="F/TMB"/>
@@ -1687,14 +1733,14 @@
   </r>
   <r>
     <x v="13"/>
-    <s v="0.1u"/>
+    <s v="22p"/>
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="5"/>
-    <m/>
-    <s v="Sim"/>
-    <s v="CL05B104KO5NNNC"/>
+    <x v="6"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
     <m/>
     <x v="0"/>
   </r>
@@ -1713,14 +1759,14 @@
   </r>
   <r>
     <x v="15"/>
-    <s v="0.1u"/>
+    <s v="22p"/>
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="5"/>
-    <m/>
-    <s v="Sim"/>
-    <s v="CL05B104KO5NNNC"/>
+    <x v="6"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
     <m/>
     <x v="0"/>
   </r>
@@ -1756,7 +1802,7 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="6"/>
+    <x v="7"/>
     <m/>
     <s v="Sim"/>
     <s v="C3216X7R2A224K115AA"/>
@@ -1769,7 +1815,7 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="7"/>
+    <x v="8"/>
     <m/>
     <s v="Sim"/>
     <s v="CL05B472KA5NNNC"/>
@@ -1782,7 +1828,7 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="7"/>
+    <x v="8"/>
     <m/>
     <s v="Sim"/>
     <s v="CL05B472KA5NNNC"/>
@@ -1795,12 +1841,12 @@
     <s v="C-USC0805"/>
     <s v="C0805"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="8"/>
-    <m/>
-    <s v="Sim"/>
-    <m/>
-    <m/>
-    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
+    <m/>
+    <x v="2"/>
   </r>
   <r>
     <x v="22"/>
@@ -1808,7 +1854,7 @@
     <s v="C-USC1812"/>
     <s v="C1812"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="9"/>
+    <x v="10"/>
     <m/>
     <s v="Sim"/>
     <s v="C1812C102FBGACTU"/>
@@ -1821,7 +1867,7 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="10"/>
+    <x v="11"/>
     <m/>
     <s v="Sim"/>
     <s v="CL05C680JB5NNNC"/>
@@ -1834,7 +1880,7 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="10"/>
+    <x v="11"/>
     <m/>
     <s v="Sim"/>
     <s v="CL05C680JB5NNNC"/>
@@ -1860,7 +1906,7 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="6"/>
+    <x v="7"/>
     <m/>
     <s v="Sim"/>
     <s v="C3216X7R2A224K115AA"/>
@@ -1873,7 +1919,7 @@
     <s v="C-USC1206"/>
     <s v="C1206"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="6"/>
+    <x v="7"/>
     <m/>
     <s v="Sim"/>
     <s v="C3216X7R2A224K115AA"/>
@@ -1886,7 +1932,7 @@
     <s v="C-USC1206"/>
     <s v="C1206"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="11"/>
+    <x v="12"/>
     <m/>
     <s v="Sim"/>
     <s v="CL31C102JHHNFNE"/>
@@ -1904,7 +1950,7 @@
     <s v="Sim"/>
     <s v="CL05B104KO5NNNC"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="30"/>
@@ -1912,7 +1958,7 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="12"/>
+    <x v="13"/>
     <m/>
     <s v="Sim"/>
     <s v="CC0402KRX7R9BB681"/>
@@ -1925,12 +1971,12 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="13"/>
-    <m/>
-    <s v="Sim"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <x v="14"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
+    <m/>
+    <x v="3"/>
   </r>
   <r>
     <x v="32"/>
@@ -1938,12 +1984,12 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="13"/>
-    <m/>
-    <s v="Sim"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <x v="14"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
+    <m/>
+    <x v="3"/>
   </r>
   <r>
     <x v="33"/>
@@ -1951,7 +1997,7 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="10"/>
+    <x v="11"/>
     <m/>
     <s v="Sim"/>
     <s v="CL05C680JB5NNNC"/>
@@ -1982,7 +2028,7 @@
     <s v="Sim"/>
     <s v="CL05B104KO5NNNC"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="36"/>
@@ -1990,7 +2036,7 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="14"/>
+    <x v="15"/>
     <m/>
     <s v="Sim"/>
     <s v="GRM1555C1H470FA01D"/>
@@ -2003,7 +2049,7 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="14"/>
+    <x v="15"/>
     <m/>
     <s v="Sim"/>
     <s v="GRM1555C1H470FA01D"/>
@@ -2016,12 +2062,12 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="13"/>
-    <m/>
-    <s v="Sim"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <x v="14"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
+    <m/>
+    <x v="3"/>
   </r>
   <r>
     <x v="39"/>
@@ -2029,12 +2075,12 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="13"/>
-    <m/>
-    <s v="Sim"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <x v="14"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
+    <m/>
+    <x v="3"/>
   </r>
   <r>
     <x v="40"/>
@@ -2042,7 +2088,7 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="14"/>
+    <x v="15"/>
     <m/>
     <s v="Sim"/>
     <s v="GRM1555C1H470FA01D"/>
@@ -2055,7 +2101,7 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="14"/>
+    <x v="15"/>
     <m/>
     <s v="Sim"/>
     <s v="GRM1555C1H470FA01D"/>
@@ -2073,7 +2119,7 @@
     <s v="Sim"/>
     <s v="CL05B104KO5NNNC"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="43"/>
@@ -2081,12 +2127,12 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="13"/>
-    <m/>
-    <s v="Sim"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <x v="14"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
+    <m/>
+    <x v="3"/>
   </r>
   <r>
     <x v="44"/>
@@ -2094,12 +2140,12 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="13"/>
-    <m/>
-    <s v="Sim"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <x v="14"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
+    <m/>
+    <x v="3"/>
   </r>
   <r>
     <x v="45"/>
@@ -2112,7 +2158,7 @@
     <s v="Sim"/>
     <s v="CL05B104KO5NNNC"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="46"/>
@@ -2120,12 +2166,12 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="15"/>
+    <x v="16"/>
     <m/>
     <s v="Sim"/>
     <s v="CL05C180JB5NNNC"/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="47"/>
@@ -2133,12 +2179,12 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="15"/>
+    <x v="16"/>
     <m/>
     <s v="Sim"/>
     <s v="CL05C180JB5NNNC"/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="48"/>
@@ -2151,7 +2197,7 @@
     <s v="Sim"/>
     <s v="CL05B104KO5NNNC"/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="49"/>
@@ -2159,12 +2205,12 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="16"/>
+    <x v="17"/>
     <m/>
     <s v="Sim"/>
     <s v="CL05C101JB5NNNC"/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="50"/>
@@ -2172,12 +2218,12 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="16"/>
+    <x v="17"/>
     <m/>
     <s v="Sim"/>
     <s v="CL05C101JB5NNNC"/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="51"/>
@@ -2185,12 +2231,12 @@
     <s v="C-USC0402"/>
     <s v="C0402"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="17"/>
-    <m/>
-    <s v="Sim"/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <x v="18"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
+    <m/>
+    <x v="4"/>
   </r>
   <r>
     <x v="52"/>
@@ -2203,7 +2249,7 @@
     <s v="Sim"/>
     <s v="CL05B104KO5NNNC"/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="53"/>
@@ -2216,7 +2262,7 @@
     <s v="Sim"/>
     <s v="CL05B104KO5NNNC"/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="54"/>
@@ -2224,12 +2270,12 @@
     <s v="C-USC0603"/>
     <s v="C0603"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="18"/>
+    <x v="19"/>
     <m/>
     <s v="Sim"/>
     <s v="CL05C121JB5NNNC"/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="55"/>
@@ -2237,12 +2283,12 @@
     <s v="C-USC0603"/>
     <s v="C0603"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="18"/>
+    <x v="19"/>
     <m/>
     <s v="Sim"/>
     <s v="CL05C121JB5NNNC"/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="56"/>
@@ -2250,12 +2296,12 @@
     <s v="C-USC0603"/>
     <s v="C0603"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="19"/>
+    <x v="20"/>
     <m/>
     <s v="Sim"/>
     <s v="CL05C180JB5NNNC"/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="57"/>
@@ -2263,12 +2309,12 @@
     <s v="C-USC0603"/>
     <s v="C0603"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="19"/>
+    <x v="20"/>
     <m/>
     <s v="Sim"/>
     <s v="CL05C180JB5NNNC"/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="58"/>
@@ -2281,7 +2327,7 @@
     <s v="Sim"/>
     <s v="CL05B104KO5NNNC"/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="59"/>
@@ -2289,12 +2335,12 @@
     <s v="C-USC0603"/>
     <s v="C0603"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="20"/>
+    <x v="21"/>
     <m/>
     <s v="Sim"/>
     <s v="CL05C560JB5NNNC"/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="60"/>
@@ -2302,12 +2348,12 @@
     <s v="C-USC0603"/>
     <s v="C0603"/>
     <s v="CAPACITOR, American symbol"/>
-    <x v="20"/>
+    <x v="21"/>
     <m/>
     <s v="Sim"/>
     <s v="CL05C560JB5NNNC"/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="61"/>
@@ -2320,72 +2366,72 @@
     <s v="Sim"/>
     <s v="CL05B104KO5NNNC"/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="62"/>
+    <s v="0.1u"/>
+    <s v="C-USC0402"/>
+    <s v="C0402"/>
+    <s v="CAPACITOR, American symbol"/>
+    <x v="5"/>
+    <m/>
+    <s v="Sim"/>
+    <s v="CL05B104KO5NNNC"/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <s v="0.1u"/>
+    <s v="C-USC0402"/>
+    <s v="C0402"/>
+    <s v="CAPACITOR, American symbol"/>
+    <x v="5"/>
+    <m/>
+    <s v="Sim"/>
+    <s v="CL05B104KO5NNNC"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <s v="0.1u"/>
+    <s v="C-USC0402"/>
+    <s v="C0402"/>
+    <s v="CAPACITOR, American symbol"/>
+    <x v="9"/>
+    <m/>
+    <s v="Sim"/>
+    <s v="CL05B104KO5NNNC"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="65"/>
     <s v="CARD-PRES"/>
     <s v="PTHPAD"/>
     <s v="HOLE"/>
     <m/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="63"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="66"/>
     <s v="D0/CLK/TX"/>
     <s v="PTHPAD"/>
     <s v="HOLE"/>
     <m/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="64"/>
-    <s v="BYG20J"/>
-    <s v="BYG20J"/>
-    <s v="SMA"/>
-    <m/>
-    <x v="21"/>
-    <m/>
-    <s v="Sim"/>
-    <s v="BYG20J"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="65"/>
-    <s v="D1/DATA"/>
-    <s v="PTHPAD"/>
-    <s v="HOLE"/>
-    <m/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="66"/>
-    <m/>
-    <s v="DIODE-DO214AC"/>
-    <s v="DO214AC"/>
-    <s v="DIODE"/>
-    <x v="22"/>
-    <m/>
-    <s v="Sim"/>
-    <s v="SMAJ14A"/>
-    <m/>
-    <x v="0"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
   </r>
   <r>
     <x v="67"/>
@@ -2393,7 +2439,7 @@
     <s v="BYG20J"/>
     <s v="SMA"/>
     <m/>
-    <x v="21"/>
+    <x v="22"/>
     <m/>
     <s v="Sim"/>
     <s v="BYG20J"/>
@@ -2402,11 +2448,50 @@
   </r>
   <r>
     <x v="68"/>
+    <s v="D1/DATA"/>
+    <s v="PTHPAD"/>
+    <s v="HOLE"/>
+    <m/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <m/>
+    <s v="DIODE-DO214AC"/>
+    <s v="DO214AC"/>
+    <s v="DIODE"/>
+    <x v="23"/>
+    <m/>
+    <s v="Sim"/>
+    <s v="SMAJ14A"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <s v="BYG20J"/>
+    <s v="BYG20J"/>
+    <s v="SMA"/>
+    <m/>
+    <x v="22"/>
+    <m/>
+    <s v="Sim"/>
+    <s v="BYG20J"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="71"/>
     <s v="BAT54S"/>
     <s v="BAT54S"/>
     <s v="SOT23"/>
     <s v="Schottky Diodes"/>
-    <x v="23"/>
+    <x v="24"/>
     <m/>
     <m/>
     <s v="BAT54S,215"/>
@@ -2414,12 +2499,12 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="69"/>
+    <x v="72"/>
     <s v="BAT54S"/>
     <s v="BAT54S"/>
     <s v="SOT23"/>
     <s v="Schottky Diodes"/>
-    <x v="23"/>
+    <x v="24"/>
     <m/>
     <m/>
     <s v="BAT54S,215"/>
@@ -2427,25 +2512,51 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="70"/>
+    <x v="73"/>
+    <s v="FIDUCIAL1.5X3"/>
+    <s v="FIDUCIAL1.5X3"/>
+    <s v="FIDUCIAL-1.5X3"/>
+    <s v="Fiducial Alignment Points"/>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <s v="FIDUCIAL1.5X3"/>
+    <s v="FIDUCIAL1.5X3"/>
+    <s v="FIDUCIAL-1.5X3"/>
+    <s v="Fiducial Alignment Points"/>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="75"/>
     <s v="GND"/>
     <s v="PTHPAD"/>
     <s v="HOLE"/>
     <m/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="71"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="76"/>
     <s v="TL084"/>
     <s v="TL084"/>
     <s v="TSSOP14"/>
     <s v="OP AMP"/>
-    <x v="24"/>
+    <x v="25"/>
     <m/>
     <m/>
     <s v="TL084CPT"/>
@@ -2453,90 +2564,90 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="72"/>
+    <x v="77"/>
     <s v="TL084"/>
     <s v="TL084"/>
     <s v="TSSOP14"/>
     <s v="OP AMP"/>
-    <x v="24"/>
+    <x v="25"/>
     <m/>
     <m/>
     <s v="TL084CPT"/>
     <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="73"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="78"/>
     <s v="22n"/>
     <s v="R-EU_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, European symbol"/>
-    <x v="25"/>
-    <m/>
-    <s v="Sim"/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="74"/>
+    <x v="26"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="79"/>
     <s v="22n"/>
     <s v="R-EU_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, European symbol"/>
-    <x v="25"/>
-    <m/>
-    <s v="Sim"/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="75"/>
+    <x v="26"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="80"/>
     <s v="1u"/>
     <s v="R-EU_R0603"/>
     <s v="R0603"/>
     <s v="RESISTOR, European symbol"/>
-    <x v="26"/>
-    <m/>
-    <s v="Sim"/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="76"/>
+    <x v="27"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="81"/>
     <s v="1u"/>
     <s v="R-EU_R0603"/>
     <s v="R0603"/>
     <s v="RESISTOR, European symbol"/>
-    <x v="26"/>
-    <m/>
-    <s v="Sim"/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="77"/>
+    <x v="27"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="82"/>
     <s v="LED"/>
     <s v="PTHPAD"/>
     <s v="HOLE"/>
     <m/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="78"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="83"/>
     <s v="LTL1BEKVJNN"/>
     <s v="LTL1BEKVJNN"/>
     <s v="LTL1BEKVJNN"/>
     <m/>
-    <x v="27"/>
+    <x v="28"/>
     <m/>
     <m/>
     <s v="LTL1BEKVJNN"/>
@@ -2544,93 +2655,28 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="79"/>
+    <x v="84"/>
     <s v="MODESELECT"/>
     <s v="PTHPAD"/>
     <s v="HOLE"/>
     <m/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="80"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="85"/>
     <s v="DMN3404"/>
     <s v="DMN3404"/>
     <s v="SOT23"/>
     <m/>
-    <x v="28"/>
+    <x v="29"/>
     <m/>
     <m/>
     <s v="DMN3404L-7"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="81"/>
-    <s v="MMBT4401"/>
-    <s v="MMBT4401"/>
-    <s v="SOT23"/>
-    <m/>
-    <x v="29"/>
-    <m/>
-    <m/>
-    <s v="MMBT4401LT3G"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="82"/>
-    <s v="MMBT4403"/>
-    <s v="MMBT4403"/>
-    <s v="SOT23"/>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-    <s v="MMBT4403LT3G"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="83"/>
-    <s v="MMBT4401"/>
-    <s v="MMBT4401"/>
-    <s v="SOT23"/>
-    <m/>
-    <x v="29"/>
-    <m/>
-    <m/>
-    <s v="MMBT4403LT3G"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="84"/>
-    <s v="MMBT4401"/>
-    <s v="MMBT4401"/>
-    <s v="SOT23"/>
-    <m/>
-    <x v="29"/>
-    <m/>
-    <m/>
-    <s v="MMBT4403LT3G"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="85"/>
-    <s v="MMBT4401"/>
-    <s v="MMBT4401"/>
-    <s v="SOT23"/>
-    <m/>
-    <x v="29"/>
-    <m/>
-    <m/>
-    <s v="MMBT4403LT3G"/>
     <m/>
     <x v="0"/>
   </r>
@@ -2640,7 +2686,20 @@
     <s v="MMBT4401"/>
     <s v="SOT23"/>
     <m/>
-    <x v="29"/>
+    <x v="30"/>
+    <m/>
+    <m/>
+    <s v="MMBT4401LT3G"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <s v="MMBT4403"/>
+    <s v="MMBT4403"/>
+    <s v="SOT23"/>
+    <m/>
+    <x v="31"/>
     <m/>
     <m/>
     <s v="MMBT4403LT3G"/>
@@ -2648,12 +2707,64 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="87"/>
+    <x v="88"/>
+    <s v="MMBT4401"/>
+    <s v="MMBT4401"/>
+    <s v="SOT23"/>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+    <s v="MMBT4403LT3G"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <s v="MMBT4401"/>
+    <s v="MMBT4401"/>
+    <s v="SOT23"/>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+    <s v="MMBT4403LT3G"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <s v="MMBT4401"/>
+    <s v="MMBT4401"/>
+    <s v="SOT23"/>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+    <s v="MMBT4403LT3G"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <s v="MMBT4401"/>
+    <s v="MMBT4401"/>
+    <s v="SOT23"/>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+    <s v="MMBT4403LT3G"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="92"/>
     <s v="8MHz"/>
     <s v="CRYSTALHC49S"/>
     <s v="HC49/S"/>
     <s v="CRYSTAL"/>
-    <x v="31"/>
+    <x v="32"/>
     <m/>
     <m/>
     <s v="9B-8.000MAAJ-B"/>
@@ -2661,25 +2772,25 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="88"/>
+    <x v="93"/>
     <s v="27.12MHz"/>
     <s v="CRISTAL"/>
     <s v="CRISTAL4SMD"/>
     <s v="Monolithic Crystal Filters"/>
-    <x v="32"/>
+    <x v="33"/>
     <m/>
     <m/>
     <s v="7B-27.120MAAJ-T"/>
     <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="89"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="94"/>
     <n v="470"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="33"/>
+    <x v="34"/>
     <m/>
     <s v="Sim"/>
     <s v="RC0402JR-07470RL"/>
@@ -2687,12 +2798,12 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="90"/>
+    <x v="95"/>
     <n v="470"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="33"/>
+    <x v="34"/>
     <m/>
     <s v="Sim"/>
     <s v="RC0402JR-07470RL"/>
@@ -2700,25 +2811,25 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="91"/>
-    <s v="10k"/>
+    <x v="96"/>
+    <s v="12k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="34"/>
-    <m/>
-    <s v="Sim"/>
-    <s v="RC0402JR-0710KL"/>
+    <x v="35"/>
+    <m/>
+    <s v="Sim"/>
+    <s v="RC1608J123CS"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
-    <x v="92"/>
+    <x v="97"/>
     <s v="1k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="35"/>
+    <x v="36"/>
     <m/>
     <s v="Sim"/>
     <s v="RC0402JR-071KL"/>
@@ -2726,12 +2837,12 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="93"/>
+    <x v="98"/>
     <s v="4.7k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="36"/>
+    <x v="37"/>
     <m/>
     <s v="Sim"/>
     <s v="RC0402JR-074K7L"/>
@@ -2739,12 +2850,12 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="94"/>
+    <x v="99"/>
     <s v="2.2k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="37"/>
+    <x v="38"/>
     <m/>
     <s v="Sim"/>
     <s v="RC0402JR-072K2L"/>
@@ -2752,12 +2863,12 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="95"/>
+    <x v="100"/>
     <s v="4.7k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="36"/>
+    <x v="37"/>
     <m/>
     <s v="Sim"/>
     <s v="RC0402JR-074K7L"/>
@@ -2765,12 +2876,12 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="96"/>
+    <x v="101"/>
     <n v="0"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="38"/>
+    <x v="39"/>
     <m/>
     <s v="Sim"/>
     <s v="RC1005J000CS"/>
@@ -2778,12 +2889,12 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="97"/>
+    <x v="102"/>
     <n v="10"/>
     <s v="R-US_R0603"/>
     <s v="R0603"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="39"/>
+    <x v="40"/>
     <m/>
     <s v="Sim"/>
     <s v="RC1608J100CS"/>
@@ -2791,12 +2902,12 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="98"/>
+    <x v="103"/>
     <n v="10"/>
     <s v="R-US_R0603"/>
     <s v="R0603"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="39"/>
+    <x v="40"/>
     <m/>
     <s v="Sim"/>
     <s v="RC1608J100CS"/>
@@ -2804,12 +2915,12 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="99"/>
+    <x v="104"/>
     <s v="91k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="40"/>
+    <x v="41"/>
     <m/>
     <s v="Sim"/>
     <s v="RMCF0402JT91K0"/>
@@ -2817,12 +2928,12 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="100"/>
+    <x v="105"/>
     <s v="13k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="41"/>
+    <x v="42"/>
     <m/>
     <s v="Sim"/>
     <s v="RC1005J133CS"/>
@@ -2830,12 +2941,12 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="101"/>
+    <x v="106"/>
     <s v="91k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="40"/>
+    <x v="41"/>
     <m/>
     <s v="Sim"/>
     <s v="RMCF0402JT91K0"/>
@@ -2843,12 +2954,12 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="102"/>
+    <x v="107"/>
     <s v="13k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="41"/>
+    <x v="42"/>
     <m/>
     <s v="Sim"/>
     <s v="RC1005J133CS"/>
@@ -2856,12 +2967,12 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="103"/>
+    <x v="108"/>
     <s v="1M"/>
     <s v="R-US_R1206"/>
     <s v="R1206"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="42"/>
+    <x v="43"/>
     <m/>
     <s v="Sim"/>
     <s v="RC3216J105CS"/>
@@ -2869,12 +2980,12 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="104"/>
+    <x v="109"/>
     <s v="100k"/>
     <s v="R-US_R0603"/>
     <s v="R0603"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="43"/>
+    <x v="44"/>
     <m/>
     <s v="Sim"/>
     <s v="RC0603JR-07100KL"/>
@@ -2882,25 +2993,25 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="105"/>
-    <s v="100k"/>
-    <s v="R-US_R0603"/>
-    <s v="R0603"/>
+    <x v="110"/>
+    <s v="1k"/>
+    <s v="R-US_R0402"/>
+    <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="43"/>
-    <m/>
-    <s v="Sim"/>
-    <s v="RC0603JR-07100KL"/>
+    <x v="36"/>
+    <m/>
+    <s v="Sim"/>
+    <s v="RC0402JR-071KL"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
-    <x v="106"/>
+    <x v="111"/>
     <s v="12k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="44"/>
+    <x v="35"/>
     <m/>
     <s v="Sim"/>
     <s v="RC1608J123CS"/>
@@ -2908,7 +3019,7 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="107"/>
+    <x v="112"/>
     <s v="5.1k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
@@ -2921,7 +3032,7 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="108"/>
+    <x v="113"/>
     <s v="9.1k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
@@ -2934,20 +3045,20 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="109"/>
+    <x v="114"/>
     <s v="F:P:5.6k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="13"/>
-    <m/>
-    <s v="Sim"/>
-    <m/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="110"/>
+    <x v="14"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="115"/>
     <s v="9.1k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
@@ -2960,25 +3071,25 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="111"/>
+    <x v="116"/>
     <s v="F:P:5.1k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="13"/>
-    <m/>
-    <s v="Sim"/>
-    <m/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="112"/>
+    <x v="14"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="117"/>
     <n v="0"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="38"/>
+    <x v="39"/>
     <m/>
     <s v="Sim"/>
     <s v="RC1005J000CS"/>
@@ -2986,12 +3097,12 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="113"/>
+    <x v="118"/>
     <s v="12k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="44"/>
+    <x v="35"/>
     <m/>
     <s v="Sim"/>
     <s v="RC1608J123CS"/>
@@ -2999,7 +3110,7 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="114"/>
+    <x v="119"/>
     <s v="5.1k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
@@ -3009,41 +3120,41 @@
     <s v="Sim"/>
     <s v="ERJ-2GEJ512X"/>
     <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="115"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="120"/>
     <s v="F:P:270k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="13"/>
-    <m/>
-    <s v="Sim"/>
-    <m/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="116"/>
+    <x v="14"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="121"/>
     <s v="12k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="44"/>
+    <x v="35"/>
     <m/>
     <s v="Sim"/>
     <s v="RC1608J123CS"/>
     <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="117"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="122"/>
     <n v="470"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="33"/>
+    <x v="34"/>
     <m/>
     <s v="Sim"/>
     <s v="RC0402JR-07470RL"/>
@@ -3051,7 +3162,7 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="118"/>
+    <x v="123"/>
     <s v="27k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
@@ -3064,82 +3175,17 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="119"/>
+    <x v="124"/>
     <s v="F:P:270k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="13"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="120"/>
-    <s v="27k"/>
-    <s v="R-US_R0402"/>
-    <s v="R0402"/>
-    <s v="RESISTOR, American symbol"/>
-    <x v="47"/>
-    <m/>
-    <s v="Sim"/>
-    <s v="MCR01MRTF2702"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="121"/>
-    <n v="0"/>
-    <s v="R-US_R0402"/>
-    <s v="R0402"/>
-    <s v="RESISTOR, American symbol"/>
-    <x v="38"/>
-    <m/>
-    <s v="Sim"/>
-    <s v="RC1005J000CS"/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="122"/>
-    <s v="27k"/>
-    <s v="R-US_R0402"/>
-    <s v="R0402"/>
-    <s v="RESISTOR, American symbol"/>
-    <x v="47"/>
-    <m/>
-    <s v="Sim"/>
-    <s v="MCR01MRTF2702"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="123"/>
-    <s v="F:P:5.6k"/>
-    <s v="R-US_R0402"/>
-    <s v="R0402"/>
-    <s v="RESISTOR, American symbol"/>
-    <x v="13"/>
-    <m/>
-    <s v="Sim"/>
-    <m/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="124"/>
-    <s v="F:P:5.1k"/>
-    <s v="R-US_R0402"/>
-    <s v="R0402"/>
-    <s v="RESISTOR, American symbol"/>
-    <x v="13"/>
-    <m/>
-    <s v="Sim"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
   </r>
   <r>
     <x v="125"/>
@@ -3156,6 +3202,71 @@
   </r>
   <r>
     <x v="126"/>
+    <n v="0"/>
+    <s v="R-US_R0402"/>
+    <s v="R0402"/>
+    <s v="RESISTOR, American symbol"/>
+    <x v="39"/>
+    <m/>
+    <s v="Sim"/>
+    <s v="RC1005J000CS"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <s v="27k"/>
+    <s v="R-US_R0402"/>
+    <s v="R0402"/>
+    <s v="RESISTOR, American symbol"/>
+    <x v="47"/>
+    <m/>
+    <s v="Sim"/>
+    <s v="MCR01MRTF2702"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="128"/>
+    <s v="F:P:5.6k"/>
+    <s v="R-US_R0402"/>
+    <s v="R0402"/>
+    <s v="RESISTOR, American symbol"/>
+    <x v="14"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="129"/>
+    <s v="F:P:5.1k"/>
+    <s v="R-US_R0402"/>
+    <s v="R0402"/>
+    <s v="RESISTOR, American symbol"/>
+    <x v="14"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <s v="27k"/>
+    <s v="R-US_R0402"/>
+    <s v="R0402"/>
+    <s v="RESISTOR, American symbol"/>
+    <x v="47"/>
+    <m/>
+    <s v="Sim"/>
+    <s v="MCR01MRTF2702"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="131"/>
     <n v="100"/>
     <s v="R-US_R0603"/>
     <s v="R0603"/>
@@ -3168,98 +3279,98 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="127"/>
+    <x v="132"/>
     <s v="F:P:5.1k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="13"/>
-    <m/>
-    <s v="Sim"/>
-    <m/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="128"/>
+    <x v="14"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="133"/>
     <s v="F:P:5.6k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="13"/>
-    <m/>
-    <s v="Sim"/>
-    <m/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="129"/>
+    <x v="14"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="134"/>
     <s v="F:P:270k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="13"/>
-    <m/>
-    <s v="Sim"/>
-    <m/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="130"/>
+    <x v="14"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="135"/>
     <s v="4.7k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="36"/>
+    <x v="37"/>
     <m/>
     <s v="Sim"/>
     <s v="RC0402JR-074K7L"/>
     <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="131"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="136"/>
     <s v="4.7k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="36"/>
+    <x v="37"/>
     <m/>
     <s v="Sim"/>
     <s v="RC0402JR-074K7L"/>
     <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="132"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="137"/>
     <s v="1k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="35"/>
+    <x v="36"/>
     <m/>
     <s v="Sim"/>
     <s v="RC0402JR-071KL"/>
     <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="133"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="138"/>
     <s v="2.2k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="37"/>
+    <x v="38"/>
     <m/>
     <s v="Sim"/>
     <s v="RC0402JR-072K2L"/>
     <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="134"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="139"/>
     <n v="3.3"/>
     <s v="R-US_R0603"/>
     <s v="R0603"/>
@@ -3269,10 +3380,10 @@
     <s v="Sim"/>
     <s v="RC0402JR-073R3L"/>
     <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="135"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="140"/>
     <n v="3.3"/>
     <s v="R-US_R0603"/>
     <s v="R0603"/>
@@ -3282,15 +3393,15 @@
     <s v="Sim"/>
     <s v="RC0402JR-073R3L"/>
     <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="136"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="141"/>
     <s v="2.2k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="37"/>
+    <x v="38"/>
     <m/>
     <s v="Sim"/>
     <s v="RC0402JR-072K2L"/>
@@ -3298,12 +3409,12 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="137"/>
+    <x v="142"/>
     <s v="2.2k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="37"/>
+    <x v="38"/>
     <m/>
     <s v="Sim"/>
     <s v="RC0402JR-072K2L"/>
@@ -3311,80 +3422,15 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="138"/>
+    <x v="143"/>
     <s v="1k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="35"/>
+    <x v="36"/>
     <m/>
     <s v="Sim"/>
     <s v="RC0402JR-071KL"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="139"/>
-    <s v="1k"/>
-    <s v="R-US_R0402"/>
-    <s v="R0402"/>
-    <s v="RESISTOR, American symbol"/>
-    <x v="35"/>
-    <m/>
-    <s v="Sim"/>
-    <s v="RC0402JR-071KL"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="140"/>
-    <n v="100"/>
-    <s v="R-US_R0603"/>
-    <s v="R0603"/>
-    <s v="RESISTOR, American symbol"/>
-    <x v="48"/>
-    <m/>
-    <s v="Sim"/>
-    <s v="MCR01MRTF1000"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="141"/>
-    <n v="130"/>
-    <s v="R-US_R0402"/>
-    <s v="R0402"/>
-    <s v="RESISTOR, American symbol"/>
-    <x v="50"/>
-    <m/>
-    <s v="Sim"/>
-    <s v="RC1005J131CS"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="142"/>
-    <n v="120"/>
-    <s v="R-US_R0402"/>
-    <s v="R0402"/>
-    <s v="RESISTOR, American symbol"/>
-    <x v="51"/>
-    <m/>
-    <s v="Sim"/>
-    <s v="RC1005J121CS"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="143"/>
-    <s v="2.2k"/>
-    <s v="R-US_R0402"/>
-    <s v="R0402"/>
-    <s v="RESISTOR, American symbol"/>
-    <x v="37"/>
-    <m/>
-    <s v="Sim"/>
-    <s v="RC0402JR-072K2L"/>
     <m/>
     <x v="0"/>
   </r>
@@ -3394,7 +3440,7 @@
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="35"/>
+    <x v="36"/>
     <m/>
     <s v="Sim"/>
     <s v="RC0402JR-071KL"/>
@@ -3416,63 +3462,37 @@
   </r>
   <r>
     <x v="146"/>
-    <s v="100k"/>
-    <s v="R-US_R0603"/>
-    <s v="R0603"/>
+    <n v="150"/>
+    <s v="R-US_R0402"/>
+    <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="43"/>
-    <m/>
-    <s v="Sim"/>
-    <s v="RC0603JR-07100KL"/>
+    <x v="50"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <x v="147"/>
-    <s v="100k"/>
-    <s v="R-US_R0603"/>
-    <s v="R0603"/>
+    <n v="150"/>
+    <s v="R-US_R0402"/>
+    <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="43"/>
-    <m/>
-    <s v="Sim"/>
-    <s v="RC0603JR-07100KL"/>
+    <x v="50"/>
+    <m/>
+    <s v="Sim"/>
+    <m/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <x v="148"/>
-    <s v="100k"/>
-    <s v="R-US_R0603"/>
-    <s v="R0603"/>
-    <s v="RESISTOR, American symbol"/>
-    <x v="43"/>
-    <m/>
-    <s v="Sim"/>
-    <s v="RC0603JR-07100KL"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="149"/>
-    <s v="100k"/>
-    <s v="R-US_R0603"/>
-    <s v="R0603"/>
-    <s v="RESISTOR, American symbol"/>
-    <x v="43"/>
-    <m/>
-    <s v="Sim"/>
-    <s v="RC0603JR-07100KL"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="150"/>
     <s v="2.2k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="37"/>
+    <x v="38"/>
     <m/>
     <s v="Sim"/>
     <s v="RC0402JR-072K2L"/>
@@ -3480,12 +3500,12 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="151"/>
+    <x v="149"/>
     <s v="1k"/>
     <s v="R-US_R0402"/>
     <s v="R0402"/>
     <s v="RESISTOR, American symbol"/>
-    <x v="35"/>
+    <x v="36"/>
     <m/>
     <s v="Sim"/>
     <s v="RC0402JR-071KL"/>
@@ -3493,7 +3513,7 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="152"/>
+    <x v="150"/>
     <n v="100"/>
     <s v="R-US_R0603"/>
     <s v="R0603"/>
@@ -3506,25 +3526,116 @@
     <x v="0"/>
   </r>
   <r>
+    <x v="151"/>
+    <s v="100k"/>
+    <s v="R-US_R0603"/>
+    <s v="R0603"/>
+    <s v="RESISTOR, American symbol"/>
+    <x v="44"/>
+    <m/>
+    <s v="Sim"/>
+    <s v="RC0603JR-07100KL"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="152"/>
+    <s v="100k"/>
+    <s v="R-US_R0603"/>
+    <s v="R0603"/>
+    <s v="RESISTOR, American symbol"/>
+    <x v="44"/>
+    <m/>
+    <s v="Sim"/>
+    <s v="RC0603JR-07100KL"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="153"/>
+    <s v="100k"/>
+    <s v="R-US_R0603"/>
+    <s v="R0603"/>
+    <s v="RESISTOR, American symbol"/>
+    <x v="44"/>
+    <m/>
+    <s v="Sim"/>
+    <s v="RC0603JR-07100KL"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="154"/>
+    <s v="100k"/>
+    <s v="R-US_R0603"/>
+    <s v="R0603"/>
+    <s v="RESISTOR, American symbol"/>
+    <x v="44"/>
+    <m/>
+    <s v="Sim"/>
+    <s v="RC0603JR-07100KL"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="155"/>
+    <s v="2.2k"/>
+    <s v="R-US_R0402"/>
+    <s v="R0402"/>
+    <s v="RESISTOR, American symbol"/>
+    <x v="38"/>
+    <m/>
+    <s v="Sim"/>
+    <s v="RC0402JR-072K2L"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="156"/>
+    <s v="1k"/>
+    <s v="R-US_R0402"/>
+    <s v="R0402"/>
+    <s v="RESISTOR, American symbol"/>
+    <x v="36"/>
+    <m/>
+    <s v="Sim"/>
+    <s v="RC0402JR-071KL"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="157"/>
+    <n v="100"/>
+    <s v="R-US_R0603"/>
+    <s v="R0603"/>
+    <s v="RESISTOR, American symbol"/>
+    <x v="48"/>
+    <m/>
+    <s v="Sim"/>
+    <s v="MCR01MRTF1000"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="158"/>
     <m/>
     <s v="PINHD-1X5"/>
     <s v="1X05"/>
     <s v="PIN HEADER"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="154"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="159"/>
     <s v="LP2985-33DBVR"/>
     <s v="LP2985-33DBVR"/>
     <s v="SOT-23-5"/>
     <m/>
-    <x v="52"/>
+    <x v="51"/>
     <m/>
     <m/>
     <s v="LP2985-33DBVR"/>
@@ -3532,12 +3643,12 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="155"/>
+    <x v="160"/>
     <s v="TLV1117-50CDCYR"/>
     <s v="TLV1117-50CDCYR"/>
     <s v="SOT223-3L"/>
     <m/>
-    <x v="53"/>
+    <x v="52"/>
     <m/>
     <m/>
     <s v="TLV1117-50CDCYR"/>
@@ -3545,12 +3656,12 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="156"/>
+    <x v="161"/>
     <s v="SAMD20E14A-AUT"/>
     <s v="SAMD20E14A-AUT"/>
     <s v="TQFP32"/>
     <s v="ATSAMD20E edit this description"/>
-    <x v="54"/>
+    <x v="53"/>
     <m/>
     <m/>
     <s v="SAMD20E14A-AUT"/>
@@ -3558,12 +3669,12 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="157"/>
+    <x v="162"/>
     <s v="MFRC52202HN1"/>
     <s v="MFRC52202HN1"/>
     <s v="QFN32"/>
     <s v="Connect-List generated from MFRC522.DEV Variant '' with split-device-symbol.ulp"/>
-    <x v="55"/>
+    <x v="54"/>
     <m/>
     <m/>
     <s v="MFRC52202HN1,151"/>
@@ -3571,77 +3682,51 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="158"/>
+    <x v="163"/>
     <s v="VCC"/>
     <s v="PTHPAD"/>
     <s v="HOLE"/>
     <m/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="159"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="164"/>
     <s v="ANTENA"/>
     <s v="22-23-2021"/>
     <s v="22-23-2021"/>
     <s v=".100&quot; (2.54mm) Center Header - 2 Pin"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="160"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="165"/>
     <s v="MIFARE"/>
     <s v="22-23-2021"/>
     <s v="22-23-2021"/>
     <s v=".100&quot; (2.54mm) Center Header - 2 Pin"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="161"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="13"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="161"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="13"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="161"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="13"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="166"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="14"/>
     <m/>
     <m/>
     <m/>
@@ -3652,11 +3737,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C105" firstHeaderRow="1" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C48" firstHeaderRow="1" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" dataField="1" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="162">
+      <items count="167">
         <item x="0"/>
         <item x="1"/>
         <item x="10"/>
@@ -3719,9 +3804,6 @@
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
         <item x="65"/>
         <item x="66"/>
         <item x="67"/>
@@ -3730,159 +3812,169 @@
         <item x="70"/>
         <item x="71"/>
         <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
         <item x="75"/>
         <item x="76"/>
+        <item x="77"/>
         <item x="78"/>
-        <item x="77"/>
         <item x="79"/>
         <item x="80"/>
         <item x="81"/>
+        <item x="83"/>
         <item x="82"/>
-        <item x="83"/>
         <item x="84"/>
         <item x="85"/>
         <item x="86"/>
         <item x="87"/>
         <item x="88"/>
         <item x="89"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
         <item x="103"/>
         <item x="104"/>
         <item x="105"/>
         <item x="106"/>
         <item x="107"/>
-        <item x="90"/>
         <item x="108"/>
         <item x="109"/>
         <item x="110"/>
         <item x="111"/>
         <item x="112"/>
+        <item x="95"/>
         <item x="113"/>
         <item x="114"/>
         <item x="115"/>
         <item x="116"/>
         <item x="117"/>
-        <item x="91"/>
         <item x="118"/>
         <item x="119"/>
         <item x="120"/>
         <item x="121"/>
         <item x="122"/>
+        <item x="96"/>
         <item x="123"/>
         <item x="124"/>
         <item x="125"/>
         <item x="126"/>
         <item x="127"/>
-        <item x="92"/>
         <item x="128"/>
         <item x="129"/>
         <item x="130"/>
         <item x="131"/>
         <item x="132"/>
+        <item x="97"/>
         <item x="133"/>
         <item x="134"/>
         <item x="135"/>
         <item x="136"/>
         <item x="137"/>
-        <item x="93"/>
         <item x="138"/>
         <item x="139"/>
         <item x="140"/>
         <item x="141"/>
         <item x="142"/>
+        <item x="98"/>
         <item x="143"/>
         <item x="144"/>
         <item x="145"/>
         <item x="146"/>
         <item x="147"/>
-        <item x="94"/>
         <item x="148"/>
         <item x="149"/>
         <item x="150"/>
         <item x="151"/>
         <item x="152"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
+        <item x="99"/>
         <item x="153"/>
         <item x="154"/>
         <item x="155"/>
         <item x="156"/>
         <item x="157"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
         <item x="158"/>
         <item x="159"/>
         <item x="160"/>
         <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="73"/>
+        <item x="74"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="56">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="18"/>
-        <item x="15"/>
-        <item x="19"/>
-        <item x="2"/>
-        <item x="17"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="20"/>
-        <item x="12"/>
-        <item x="10"/>
-        <item x="23"/>
-        <item x="21"/>
-        <item h="1" x="8"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="55"/>
-        <item x="54"/>
-        <item x="24"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="48"/>
-        <item x="43"/>
-        <item x="34"/>
-        <item x="51"/>
-        <item x="44"/>
-        <item x="50"/>
-        <item x="41"/>
-        <item x="35"/>
-        <item x="42"/>
-        <item x="37"/>
-        <item x="47"/>
-        <item x="49"/>
-        <item x="36"/>
-        <item x="33"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="40"/>
-        <item x="22"/>
-        <item x="32"/>
-        <item x="31"/>
-        <item x="13"/>
+    <pivotField axis="axisRow" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="58">
+        <item sd="0" x="0"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="44"/>
+        <item sd="0" m="1" x="57"/>
+        <item sd="0" m="1" x="56"/>
+        <item sd="0" x="35"/>
+        <item sd="0" m="1" x="55"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="14"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
@@ -3890,11 +3982,12 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
+      <items count="6">
         <item x="1"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item x="0"/>
         <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3903,354 +3996,138 @@
     <field x="5"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="102">
+  <rowItems count="45">
     <i>
-      <x/>
       <x/>
     </i>
     <i>
       <x v="1"/>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="28"/>
-    </i>
-    <i r="1">
-      <x v="56"/>
-    </i>
-    <i r="1">
-      <x v="61"/>
     </i>
     <i>
       <x v="3"/>
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x v="59"/>
     </i>
     <i>
       <x v="4"/>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="45"/>
-    </i>
-    <i r="1">
-      <x v="60"/>
     </i>
     <i>
       <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
       <x v="12"/>
     </i>
     <i>
-      <x v="10"/>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="12"/>
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x v="11"/>
-    </i>
-    <i r="1">
       <x v="13"/>
     </i>
     <i>
       <x v="14"/>
-      <x v="1"/>
     </i>
-    <i r="1">
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
       <x v="34"/>
     </i>
     <i>
-      <x v="15"/>
-      <x v="30"/>
-    </i>
-    <i r="1">
-      <x v="31"/>
-    </i>
-    <i r="1">
       <x v="35"/>
     </i>
-    <i r="1">
+    <i>
       <x v="36"/>
     </i>
     <i>
-      <x v="17"/>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="18"/>
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="19"/>
-      <x v="68"/>
-    </i>
-    <i r="1">
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="20"/>
-      <x v="64"/>
-    </i>
-    <i r="1">
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="22"/>
-      <x v="154"/>
-    </i>
-    <i>
-      <x v="23"/>
-      <x v="155"/>
-    </i>
-    <i>
-      <x v="24"/>
-      <x v="157"/>
-    </i>
-    <i>
-      <x v="25"/>
-      <x v="156"/>
-    </i>
-    <i>
-      <x v="26"/>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="29"/>
-      <x v="77"/>
-    </i>
-    <i>
-      <x v="30"/>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="31"/>
-      <x v="81"/>
-    </i>
-    <i r="1">
-      <x v="83"/>
-    </i>
-    <i r="1">
-      <x v="84"/>
-    </i>
-    <i r="1">
-      <x v="85"/>
-    </i>
-    <i r="1">
-      <x v="86"/>
-    </i>
-    <i>
-      <x v="32"/>
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="33"/>
-      <x v="105"/>
-    </i>
-    <i r="1">
-      <x v="151"/>
-    </i>
-    <i>
-      <x v="34"/>
-      <x v="90"/>
-    </i>
-    <i r="1">
-      <x v="152"/>
-    </i>
-    <i>
-      <x v="35"/>
-      <x v="120"/>
-    </i>
-    <i r="1">
-      <x v="136"/>
-    </i>
-    <i r="1">
-      <x v="141"/>
-    </i>
-    <i r="1">
-      <x v="149"/>
-    </i>
-    <i>
-      <x v="36"/>
-      <x v="96"/>
-    </i>
-    <i r="1">
-      <x v="97"/>
-    </i>
-    <i r="1">
-      <x v="142"/>
-    </i>
-    <i r="1">
-      <x v="143"/>
-    </i>
-    <i r="1">
-      <x v="145"/>
-    </i>
-    <i r="1">
-      <x v="146"/>
-    </i>
-    <i>
       <x v="37"/>
-      <x v="111"/>
-    </i>
-    <i>
-      <x v="38"/>
-      <x v="138"/>
-    </i>
-    <i>
-      <x v="39"/>
-      <x v="98"/>
-    </i>
-    <i r="1">
-      <x v="106"/>
     </i>
     <i>
       <x v="40"/>
-      <x v="137"/>
-    </i>
-    <i>
-      <x v="41"/>
-      <x v="92"/>
-    </i>
-    <i r="1">
-      <x v="94"/>
     </i>
     <i>
       <x v="42"/>
-      <x v="122"/>
-    </i>
-    <i r="1">
-      <x v="134"/>
-    </i>
-    <i r="1">
-      <x v="135"/>
-    </i>
-    <i r="1">
-      <x v="140"/>
-    </i>
-    <i r="1">
-      <x v="148"/>
     </i>
     <i>
       <x v="43"/>
-      <x v="95"/>
     </i>
     <i>
       <x v="44"/>
-      <x v="131"/>
-    </i>
-    <i r="1">
-      <x v="132"/>
-    </i>
-    <i r="1">
-      <x v="139"/>
-    </i>
-    <i r="1">
-      <x v="144"/>
-    </i>
-    <i r="1">
-      <x v="147"/>
     </i>
     <i>
       <x v="45"/>
-      <x v="112"/>
     </i>
-    <i r="1">
-      <x v="114"/>
-    </i>
-    <i r="1">
-      <x v="116"/>
-    </i>
-    <i r="1">
-      <x v="119"/>
+    <i>
+      <x v="46"/>
     </i>
     <i>
       <x v="47"/>
-      <x v="133"/>
-    </i>
-    <i r="1">
-      <x v="150"/>
-    </i>
-    <i>
-      <x v="48"/>
-      <x v="89"/>
-    </i>
-    <i r="1">
-      <x v="100"/>
-    </i>
-    <i r="1">
-      <x v="110"/>
     </i>
     <i>
       <x v="49"/>
-      <x v="99"/>
     </i>
     <i>
       <x v="50"/>
-      <x v="101"/>
-    </i>
-    <i r="1">
-      <x v="103"/>
     </i>
     <i>
       <x v="51"/>
-      <x v="91"/>
-    </i>
-    <i r="1">
-      <x v="93"/>
     </i>
     <i>
       <x v="52"/>
-      <x v="66"/>
+    </i>
+    <i>
+      <x v="53"/>
     </i>
     <i>
       <x v="54"/>
-      <x v="87"/>
     </i>
     <i>
-      <x v="55"/>
-      <x v="161"/>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
     </i>
     <i t="grand">
       <x/>
@@ -4561,10 +4438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4574,972 +4451,433 @@
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
       <c r="C5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>48</v>
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
       </c>
       <c r="C7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>51</v>
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>52</v>
+      <c r="E8" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>53</v>
+      <c r="E9" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>71</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>54</v>
+      <c r="E10" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
       </c>
       <c r="C11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>78</v>
+        <v>3</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>377</v>
       </c>
       <c r="C12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>97</v>
+        <v>2</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
       </c>
       <c r="C13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>101</v>
       </c>
       <c r="C15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>44</v>
+      <c r="E16" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
       </c>
       <c r="C17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="C18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>152</v>
       </c>
       <c r="C19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>45</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>349</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
+        <v>353</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
+        <v>363</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" t="s">
-        <v>67</v>
+        <v>358</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>79</v>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>193</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>80</v>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>198</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="C27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>64</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>206</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="C29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>251</v>
       </c>
       <c r="C30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" t="s">
-        <v>99</v>
+        <v>311</v>
       </c>
       <c r="C31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>103</v>
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <f>9.1/(27+9.1)</f>
+        <v>0.25207756232686979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>272</v>
       </c>
       <c r="C32" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>106</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>386</v>
       </c>
       <c r="C33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>107</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>260</v>
       </c>
       <c r="C34" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <f>3.3/12</f>
+        <v>0.27499999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" t="s">
-        <v>88</v>
+        <v>387</v>
       </c>
       <c r="C35" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="C36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>77</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>268</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>96</v>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>243</v>
       </c>
       <c r="C38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" t="s">
-        <v>161</v>
+        <v>301</v>
       </c>
       <c r="C39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>167</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>239</v>
       </c>
       <c r="C40" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" t="s">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="C41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>160</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>281</v>
       </c>
       <c r="C42" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>356</v>
-      </c>
-      <c r="B43" t="s">
-        <v>353</v>
+        <v>285</v>
       </c>
       <c r="C43" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>360</v>
-      </c>
-      <c r="B44" t="s">
-        <v>357</v>
+        <v>256</v>
       </c>
       <c r="C44" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>370</v>
-      </c>
-      <c r="B45" t="s">
-        <v>366</v>
+        <v>158</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>365</v>
-      </c>
-      <c r="B46" t="s">
-        <v>361</v>
+        <v>217</v>
       </c>
       <c r="C46" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B47" t="s">
-        <v>169</v>
+        <v>372</v>
       </c>
       <c r="C47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>193</v>
-      </c>
-      <c r="B48" t="s">
-        <v>191</v>
+        <v>373</v>
       </c>
       <c r="C48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>198</v>
-      </c>
-      <c r="B49" t="s">
-        <v>196</v>
-      </c>
-      <c r="C49" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>202</v>
-      </c>
-      <c r="B50" t="s">
-        <v>200</v>
-      </c>
-      <c r="C50" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C51" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>209</v>
-      </c>
-      <c r="C52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>210</v>
-      </c>
-      <c r="C53" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>211</v>
-      </c>
-      <c r="C54" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>206</v>
-      </c>
-      <c r="B55" t="s">
-        <v>204</v>
-      </c>
-      <c r="C55" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>250</v>
-      </c>
-      <c r="B56" t="s">
-        <v>295</v>
-      </c>
-      <c r="C56" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>254</v>
-      </c>
-      <c r="B58" t="s">
-        <v>256</v>
-      </c>
-      <c r="C58" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>314</v>
-      </c>
-      <c r="B60" t="s">
-        <v>313</v>
-      </c>
-      <c r="C60" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>332</v>
-      </c>
-      <c r="C61" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>341</v>
-      </c>
-      <c r="C62" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>348</v>
-      </c>
-      <c r="C63" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>275</v>
-      </c>
-      <c r="B64" t="s">
-        <v>273</v>
-      </c>
-      <c r="C64" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>277</v>
-      </c>
-      <c r="C65" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>342</v>
-      </c>
-      <c r="C66" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>343</v>
-      </c>
-      <c r="C67" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>344</v>
-      </c>
-      <c r="C68" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>345</v>
-      </c>
-      <c r="C69" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>234</v>
-      </c>
-      <c r="B70" t="s">
-        <v>232</v>
-      </c>
-      <c r="C70" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>337</v>
-      </c>
-      <c r="B71" t="s">
-        <v>336</v>
-      </c>
-      <c r="C71" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>280</v>
-      </c>
-      <c r="B72" t="s">
-        <v>278</v>
-      </c>
-      <c r="C72" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>296</v>
-      </c>
-      <c r="C73" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>334</v>
-      </c>
-      <c r="B74" t="s">
-        <v>333</v>
-      </c>
-      <c r="C74" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>263</v>
-      </c>
-      <c r="B75" t="s">
-        <v>261</v>
-      </c>
-      <c r="C75" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>266</v>
-      </c>
-      <c r="C76" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>238</v>
-      </c>
-      <c r="B77" t="s">
-        <v>236</v>
-      </c>
-      <c r="C77" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>330</v>
-      </c>
-      <c r="C78" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>331</v>
-      </c>
-      <c r="C79" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>340</v>
-      </c>
-      <c r="C80" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>347</v>
-      </c>
-      <c r="C81" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>271</v>
-      </c>
-      <c r="B82" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>246</v>
-      </c>
-      <c r="B83" t="s">
-        <v>328</v>
-      </c>
-      <c r="C83" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>329</v>
-      </c>
-      <c r="C84" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>339</v>
-      </c>
-      <c r="C85" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>244</v>
-      </c>
-      <c r="C86" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>346</v>
-      </c>
-      <c r="C87" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>304</v>
-      </c>
-      <c r="B88" t="s">
-        <v>302</v>
-      </c>
-      <c r="C88" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>307</v>
-      </c>
-      <c r="C89" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>309</v>
-      </c>
-      <c r="C90" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>312</v>
-      </c>
-      <c r="C91" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>242</v>
-      </c>
-      <c r="B92" t="s">
-        <v>240</v>
-      </c>
-      <c r="C92" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>248</v>
-      </c>
-      <c r="C93" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>229</v>
-      </c>
-      <c r="B94" t="s">
-        <v>226</v>
-      </c>
-      <c r="C94" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>231</v>
-      </c>
-      <c r="C95" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>301</v>
-      </c>
-      <c r="C96" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>284</v>
-      </c>
-      <c r="B97" t="s">
-        <v>282</v>
-      </c>
-      <c r="C97" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>288</v>
-      </c>
-      <c r="B98" t="s">
-        <v>286</v>
-      </c>
-      <c r="C98" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>292</v>
-      </c>
-      <c r="C99" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>259</v>
-      </c>
-      <c r="B100" t="s">
-        <v>257</v>
-      </c>
-      <c r="C100" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>265</v>
-      </c>
-      <c r="C101" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>158</v>
-      </c>
-      <c r="B102" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>217</v>
-      </c>
-      <c r="B103" t="s">
-        <v>212</v>
-      </c>
-      <c r="C103" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>379</v>
-      </c>
-      <c r="B104" t="s">
-        <v>379</v>
-      </c>
-      <c r="C104" s="4"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>380</v>
-      </c>
-      <c r="C105" s="4">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -5549,13 +4887,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K162"/>
+  <dimension ref="A1:K167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -5970,7 +5311,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>376</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
@@ -5982,15 +5323,13 @@
         <v>20</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>42</v>
+        <v>377</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
@@ -6028,7 +5367,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>376</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
@@ -6040,15 +5379,13 @@
         <v>20</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>42</v>
+        <v>377</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
@@ -6228,7 +5565,9 @@
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -7422,85 +6761,103 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>143</v>
+        <v>378</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E64" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F64" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
+      <c r="H64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K64" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>147</v>
+        <v>379</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E65" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F65" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
+      <c r="H65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>149</v>
+        <v>380</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E66" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F66" s="2" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
+      <c r="K66" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>145</v>
@@ -7516,38 +6873,38 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-    </row>
-    <row r="68" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="K67" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="C68" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>157</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="G68" s="2"/>
-      <c r="H68" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
       <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
+      <c r="K68" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>150</v>
@@ -7574,479 +6931,485 @@
     </row>
     <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>164</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
-      <c r="I70" s="2" t="s">
-        <v>166</v>
-      </c>
+      <c r="I70" s="2"/>
       <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K70" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>162</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="H71" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I71" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
     <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
+      <c r="H72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J73" s="2"/>
-      <c r="K73" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J74" s="2"/>
-      <c r="K74" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>176</v>
+        <v>381</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>177</v>
+        <v>382</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>178</v>
+        <v>382</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>179</v>
+        <v>383</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
-      <c r="K75" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>182</v>
+        <v>385</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>177</v>
+        <v>382</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>178</v>
+        <v>382</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>179</v>
+        <v>383</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
-      <c r="K76" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>180</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="E77" s="2"/>
       <c r="F77" s="2" t="s">
-        <v>187</v>
+        <v>66</v>
       </c>
       <c r="G77" s="2"/>
-      <c r="H77" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G78" s="2"/>
-      <c r="H78" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E79" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="F79" s="2" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
+      <c r="I79" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-    </row>
-    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K79" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E80" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="F80" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2" t="s">
-        <v>192</v>
-      </c>
+      <c r="H80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I80" s="2"/>
       <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K80" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E81" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="F81" s="2" t="s">
-        <v>66</v>
+        <v>181</v>
       </c>
       <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+      <c r="H81" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="K81" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E82" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="F82" s="2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2" t="s">
-        <v>199</v>
-      </c>
+      <c r="H82" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I82" s="2"/>
       <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="K82" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E83" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="F83" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2" t="s">
-        <v>203</v>
-      </c>
+      <c r="H83" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" s="2"/>
       <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-    </row>
-    <row r="84" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="K83" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>206</v>
+        <v>66</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
-      <c r="I84" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="I84" s="2"/>
       <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-    </row>
-    <row r="85" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="K84" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
-        <v>202</v>
+        <v>66</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="I86" s="2"/>
       <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
+      <c r="K86" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="87" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
     <row r="88" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>201</v>
@@ -8064,220 +7427,198 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
     <row r="89" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>216</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
     <row r="90" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>223</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="J90" s="2"/>
-      <c r="K90" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B91" s="2">
-        <v>470</v>
+        <v>209</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>228</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="G91" s="2"/>
-      <c r="H91" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H91" s="2"/>
       <c r="I91" s="2" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B92" s="2">
-        <v>470</v>
+        <v>210</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>228</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="G92" s="2"/>
-      <c r="H92" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H92" s="2"/>
       <c r="I92" s="2" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>228</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="G93" s="2"/>
-      <c r="H93" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H93" s="2"/>
       <c r="I93" s="2" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="G94" s="2"/>
-      <c r="H94" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H94" s="2"/>
       <c r="I94" s="2" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="G95" s="2"/>
-      <c r="H95" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H95" s="2"/>
       <c r="I95" s="2" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="J95" s="2"/>
       <c r="K95" s="2" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>245</v>
+        <v>226</v>
+      </c>
+      <c r="B96" s="2">
+        <v>470</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>227</v>
@@ -8289,24 +7630,24 @@
         <v>228</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
     </row>
     <row r="97" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="B97" s="2">
+        <v>470</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>227</v>
@@ -8318,26 +7659,24 @@
         <v>228</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="J97" s="2"/>
-      <c r="K97" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="K97" s="2"/>
     </row>
     <row r="98" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B98" s="2">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>227</v>
@@ -8349,82 +7688,84 @@
         <v>228</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>250</v>
+        <v>386</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
     <row r="99" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B99" s="2">
-        <v>10</v>
+        <v>233</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
     <row r="100" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B100" s="2">
-        <v>10</v>
+        <v>237</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
+      <c r="K100" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="101" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>227</v>
@@ -8436,26 +7777,24 @@
         <v>228</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="J101" s="2"/>
-      <c r="K101" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="K101" s="2"/>
     </row>
     <row r="102" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>227</v>
@@ -8467,14 +7806,14 @@
         <v>228</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="J102" s="2"/>
       <c r="K102" s="2" t="s">
@@ -8483,10 +7822,10 @@
     </row>
     <row r="103" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>227</v>
@@ -8498,144 +7837,144 @@
         <v>228</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J103" s="2"/>
-      <c r="K103" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="K103" s="2"/>
     </row>
     <row r="104" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
+      </c>
+      <c r="B104" s="2">
+        <v>10</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J104" s="2"/>
-      <c r="K104" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="K104" s="2"/>
     </row>
     <row r="105" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
+      </c>
+      <c r="B105" s="2">
+        <v>10</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>270</v>
+        <v>186</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
     <row r="106" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
+      <c r="K106" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="107" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
+      <c r="K107" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="108" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>227</v>
@@ -8647,14 +7986,14 @@
         <v>228</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="J108" s="2"/>
       <c r="K108" s="2" t="s">
@@ -8663,10 +8002,10 @@
     </row>
     <row r="109" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>227</v>
@@ -8678,14 +8017,14 @@
         <v>228</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="J109" s="2"/>
       <c r="K109" s="2" t="s">
@@ -8694,66 +8033,68 @@
     </row>
     <row r="110" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>179</v>
+        <v>267</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
     <row r="111" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F111" s="2"/>
+      <c r="F111" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I111" s="2"/>
+      <c r="I111" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="J111" s="2"/>
-      <c r="K111" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="K111" s="2"/>
     </row>
     <row r="112" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>227</v>
@@ -8765,24 +8106,24 @@
         <v>228</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>288</v>
+        <v>235</v>
       </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
     <row r="113" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>227</v>
@@ -8793,23 +8134,27 @@
       <c r="E113" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F113" s="2"/>
+      <c r="F113" s="2" t="s">
+        <v>277</v>
+      </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I113" s="2"/>
+      <c r="I113" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="J113" s="2"/>
       <c r="K113" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B114" s="2">
-        <v>0</v>
+        <v>279</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>227</v>
@@ -8821,24 +8166,26 @@
         <v>228</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
+      <c r="K114" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="115" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>227</v>
@@ -8850,24 +8197,24 @@
         <v>228</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
     <row r="116" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>227</v>
@@ -8878,16 +8225,12 @@
       <c r="E116" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F116" s="2" t="s">
-        <v>284</v>
-      </c>
+      <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I116" s="2" t="s">
-        <v>285</v>
-      </c>
+      <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2" t="s">
         <v>87</v>
@@ -8895,10 +8238,10 @@
     </row>
     <row r="117" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>227</v>
@@ -8909,23 +8252,25 @@
       <c r="E117" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F117" s="2"/>
+      <c r="F117" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I117" s="2"/>
+      <c r="I117" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="J117" s="2"/>
-      <c r="K117" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="K117" s="2"/>
     </row>
     <row r="118" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>227</v>
@@ -8936,16 +8281,12 @@
       <c r="E118" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I118" s="2" t="s">
-        <v>281</v>
-      </c>
+      <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2" t="s">
         <v>87</v>
@@ -8953,10 +8294,10 @@
     </row>
     <row r="119" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B119" s="2">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>227</v>
@@ -8968,24 +8309,24 @@
         <v>228</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
     <row r="120" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>227</v>
@@ -8997,24 +8338,24 @@
         <v>228</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
     </row>
     <row r="121" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>227</v>
@@ -9025,10 +8366,16 @@
       <c r="E121" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F121" s="2"/>
+      <c r="F121" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
+      <c r="H121" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="J121" s="2"/>
       <c r="K121" s="2" t="s">
         <v>87</v>
@@ -9036,10 +8383,10 @@
     </row>
     <row r="122" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>227</v>
@@ -9050,25 +8397,23 @@
       <c r="E122" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>304</v>
-      </c>
+      <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I122" s="2" t="s">
-        <v>305</v>
-      </c>
+      <c r="I122" s="2"/>
       <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
+      <c r="K122" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="123" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B123" s="2">
-        <v>0</v>
+        <v>297</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>227</v>
@@ -9080,14 +8425,14 @@
         <v>228</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="J123" s="2"/>
       <c r="K123" s="2" t="s">
@@ -9096,10 +8441,10 @@
     </row>
     <row r="124" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
+      </c>
+      <c r="B124" s="2">
+        <v>470</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>227</v>
@@ -9111,24 +8456,24 @@
         <v>228</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>304</v>
+        <v>229</v>
       </c>
       <c r="G124" s="2"/>
       <c r="H124" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>305</v>
+        <v>230</v>
       </c>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
     <row r="125" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>227</v>
@@ -9139,23 +8484,25 @@
       <c r="E125" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F125" s="2"/>
+      <c r="F125" s="2" t="s">
+        <v>301</v>
+      </c>
       <c r="G125" s="2"/>
       <c r="H125" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I125" s="2"/>
+      <c r="I125" s="2" t="s">
+        <v>302</v>
+      </c>
       <c r="J125" s="2"/>
-      <c r="K125" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="K125" s="2"/>
     </row>
     <row r="126" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>227</v>
@@ -9168,9 +8515,7 @@
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
-      <c r="H126" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2" t="s">
@@ -9179,10 +8524,10 @@
     </row>
     <row r="127" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>227</v>
@@ -9194,53 +8539,55 @@
         <v>228</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
     <row r="128" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B128" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>314</v>
+        <v>247</v>
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>315</v>
+        <v>248</v>
       </c>
       <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
+      <c r="K128" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="129" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>227</v>
@@ -9251,23 +8598,25 @@
       <c r="E129" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F129" s="2"/>
+      <c r="F129" s="2" t="s">
+        <v>301</v>
+      </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I129" s="2"/>
+      <c r="I129" s="2" t="s">
+        <v>302</v>
+      </c>
       <c r="J129" s="2"/>
-      <c r="K129" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="K129" s="2"/>
     </row>
     <row r="130" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>227</v>
@@ -9291,10 +8640,10 @@
     </row>
     <row r="131" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>227</v>
@@ -9318,10 +8667,10 @@
     </row>
     <row r="132" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>227</v>
@@ -9333,57 +8682,53 @@
         <v>228</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="G132" s="2"/>
       <c r="H132" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="J132" s="2"/>
-      <c r="K132" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="K132" s="2"/>
     </row>
     <row r="133" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>241</v>
+        <v>310</v>
+      </c>
+      <c r="B133" s="2">
+        <v>100</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G133" s="2"/>
       <c r="H133" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="J133" s="2"/>
-      <c r="K133" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="K133" s="2"/>
     </row>
     <row r="134" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>227</v>
@@ -9394,27 +8739,23 @@
       <c r="E134" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F134" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I134" s="2" t="s">
-        <v>239</v>
-      </c>
+      <c r="I134" s="2"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>227</v>
@@ -9425,77 +8766,69 @@
       <c r="E135" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I135" s="2" t="s">
-        <v>247</v>
-      </c>
+      <c r="I135" s="2"/>
       <c r="J135" s="2"/>
       <c r="K135" s="2" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B136" s="2">
-        <v>3.3</v>
+        <v>315</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>325</v>
-      </c>
+      <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I136" s="2" t="s">
-        <v>326</v>
-      </c>
+      <c r="I136" s="2"/>
       <c r="J136" s="2"/>
       <c r="K136" s="2" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B137" s="2">
-        <v>3.3</v>
+        <v>316</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G137" s="2"/>
       <c r="H137" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>326</v>
+        <v>240</v>
       </c>
       <c r="J137" s="2"/>
       <c r="K137" s="2" t="s">
@@ -9504,10 +8837,10 @@
     </row>
     <row r="138" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>227</v>
@@ -9519,24 +8852,26 @@
         <v>228</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>246</v>
+        <v>317</v>
       </c>
       <c r="G138" s="2"/>
       <c r="H138" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
+      <c r="K138" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="139" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>227</v>
@@ -9548,24 +8883,26 @@
         <v>228</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="G139" s="2"/>
       <c r="H139" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
+      <c r="K139" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="140" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>227</v>
@@ -9577,56 +8914,60 @@
         <v>228</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G140" s="2"/>
       <c r="H140" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
+      <c r="K140" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="141" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>237</v>
+        <v>321</v>
+      </c>
+      <c r="B141" s="2">
+        <v>3.3</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="G141" s="2"/>
       <c r="H141" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
+      <c r="K141" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="142" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B142" s="2">
-        <v>100</v>
+        <v>3.3</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>186</v>
@@ -9635,24 +8976,26 @@
         <v>228</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G142" s="2"/>
       <c r="H142" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
+      <c r="K142" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="143" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B143" s="2">
-        <v>130</v>
+        <v>325</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>227</v>
@@ -9664,24 +9007,24 @@
         <v>228</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>334</v>
+        <v>243</v>
       </c>
       <c r="G143" s="2"/>
       <c r="H143" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>335</v>
+        <v>244</v>
       </c>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
     <row r="144" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B144" s="2">
-        <v>120</v>
+        <v>326</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>227</v>
@@ -9693,24 +9036,24 @@
         <v>228</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>337</v>
+        <v>243</v>
       </c>
       <c r="G144" s="2"/>
       <c r="H144" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>338</v>
+        <v>244</v>
       </c>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
     <row r="145" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>227</v>
@@ -9722,24 +9065,24 @@
         <v>228</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="G145" s="2"/>
       <c r="H145" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
     <row r="146" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>227</v>
@@ -9751,27 +9094,27 @@
         <v>228</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G146" s="2"/>
       <c r="H146" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
     <row r="147" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B147" s="2">
         <v>100</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>186</v>
@@ -9780,201 +9123,197 @@
         <v>228</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G147" s="2"/>
       <c r="H147" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
     <row r="148" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>274</v>
+        <v>330</v>
+      </c>
+      <c r="B148" s="2">
+        <v>150</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>275</v>
+        <v>387</v>
       </c>
       <c r="G148" s="2"/>
       <c r="H148" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I148" s="2" t="s">
-        <v>276</v>
-      </c>
+      <c r="I148" s="2"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
     <row r="149" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>274</v>
+        <v>331</v>
+      </c>
+      <c r="B149" s="2">
+        <v>150</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>275</v>
+        <v>387</v>
       </c>
       <c r="G149" s="2"/>
       <c r="H149" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I149" s="2" t="s">
-        <v>276</v>
-      </c>
+      <c r="I149" s="2"/>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
     </row>
     <row r="150" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="G150" s="2"/>
       <c r="H150" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
     </row>
     <row r="151" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="G151" s="2"/>
       <c r="H151" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
     </row>
     <row r="152" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>245</v>
+        <v>334</v>
+      </c>
+      <c r="B152" s="2">
+        <v>100</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>246</v>
+        <v>311</v>
       </c>
       <c r="G152" s="2"/>
       <c r="H152" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>247</v>
+        <v>312</v>
       </c>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
     </row>
     <row r="153" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="G153" s="2"/>
       <c r="H153" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
     <row r="154" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B154" s="2">
-        <v>100</v>
+        <v>336</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>186</v>
@@ -9983,159 +9322,177 @@
         <v>228</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="G154" s="2"/>
       <c r="H154" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B155" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="C155" s="2" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>352</v>
+        <v>228</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>66</v>
+        <v>272</v>
       </c>
       <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
+      <c r="H155" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>354</v>
+        <v>271</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>354</v>
+        <v>250</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E156" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="F156" s="2" t="s">
-        <v>356</v>
+        <v>272</v>
       </c>
       <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
+      <c r="H156" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I156" s="2" t="s">
-        <v>354</v>
+        <v>273</v>
       </c>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>358</v>
+        <v>242</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>358</v>
+        <v>227</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E157" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="F157" s="2" t="s">
-        <v>360</v>
+        <v>243</v>
       </c>
       <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
+      <c r="H157" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I157" s="2" t="s">
-        <v>358</v>
+        <v>244</v>
       </c>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>362</v>
+        <v>234</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>362</v>
+        <v>227</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>363</v>
+        <v>179</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>365</v>
+        <v>235</v>
       </c>
       <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
+      <c r="H158" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I158" s="2" t="s">
-        <v>362</v>
+        <v>236</v>
       </c>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>367</v>
+        <v>341</v>
+      </c>
+      <c r="B159" s="2">
+        <v>100</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>367</v>
+        <v>250</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>368</v>
+        <v>186</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>369</v>
+        <v>228</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
+      <c r="H159" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I159" s="2" t="s">
-        <v>371</v>
+        <v>312</v>
       </c>
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>372</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="B160" s="2"/>
       <c r="C160" s="2" t="s">
-        <v>145</v>
+        <v>343</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E160" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="F160" s="2" t="s">
         <v>66</v>
       </c>
@@ -10143,84 +9500,195 @@
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
-      <c r="K160" s="2"/>
-    </row>
-    <row r="161" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="K160" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>376</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="E161" s="2"/>
       <c r="F161" s="2" t="s">
-        <v>66</v>
+        <v>349</v>
       </c>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
+      <c r="I161" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>116</v>
+        <v>351</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>376</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="E162" s="2"/>
       <c r="F162" s="2" t="s">
-        <v>66</v>
+        <v>353</v>
       </c>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
+      <c r="I162" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
+    </row>
+    <row r="163" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+    </row>
+    <row r="164" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+    </row>
+    <row r="165" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>